--- a/data/november data/dashboard_overzicht.xlsx
+++ b/data/november data/dashboard_overzicht.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenlam20/GitHub/kco_dashboard/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenlam20/GitHub/kco_dashboard/data/november data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953A8FDF-A8D8-8F42-BB33-F3D4D9E8DE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D476EB30-9FF0-3F42-83EB-2A09533C08B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6DCFAA71-C545-9047-BBA0-2A62278492E6}"/>
+    <workbookView xWindow="-32000" yWindow="-1560" windowWidth="28800" windowHeight="17500" xr2:uid="{6DCFAA71-C545-9047-BBA0-2A62278492E6}"/>
   </bookViews>
   <sheets>
     <sheet name="uitkomst" sheetId="1" r:id="rId1"/>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FAA6C8-DA36-8C43-9A13-1D27FEB3367E}">
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="137" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
